--- a/outputs-HGR-r202/o__Staphylococcales.xlsx
+++ b/outputs-HGR-r202/o__Staphylococcales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +697,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +726,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -705,6 +755,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +784,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -753,6 +813,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -777,6 +842,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -801,6 +871,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -825,6 +900,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -849,6 +929,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -873,6 +958,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -897,6 +987,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -921,6 +1016,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -945,6 +1045,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -969,6 +1074,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -993,6 +1103,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1017,6 +1132,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1041,6 +1161,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1065,6 +1190,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1089,6 +1219,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1113,6 +1248,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1137,6 +1277,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1161,6 +1306,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1185,6 +1335,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1209,6 +1364,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1233,6 +1393,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1257,6 +1422,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1281,6 +1451,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1305,6 +1480,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1329,6 +1509,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1353,6 +1538,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1377,6 +1567,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1401,6 +1596,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1425,6 +1625,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1449,6 +1654,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1473,6 +1683,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1497,6 +1712,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1521,6 +1741,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1545,6 +1770,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1569,6 +1799,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1593,6 +1828,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1617,6 +1857,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1641,6 +1886,11 @@
           <t>f__Staphylococcaceae</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1661,6 +1911,11 @@
         <v>0.9998711151547488</v>
       </c>
       <c r="F51" t="inlineStr">
+        <is>
+          <t>f__Staphylococcaceae</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>f__Staphylococcaceae</t>
         </is>
